--- a/анализ парсинг.xlsx
+++ b/анализ парсинг.xlsx
@@ -4,16 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17175" windowHeight="8205" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17175" windowHeight="8205" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист3" sheetId="3" r:id="rId2"/>
     <sheet name="Лист5" sheetId="5" r:id="rId3"/>
     <sheet name="Лист6" sheetId="6" r:id="rId4"/>
+    <sheet name="Лист2" sheetId="7" r:id="rId5"/>
+    <sheet name="Лист4" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Лист2!$A$1:$B$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Лист4!$A$1:$D$104</definedName>
     <definedName name="prom" localSheetId="0">Лист1!$E$1:$F$49</definedName>
+    <definedName name="prom" localSheetId="4">Лист2!$A$1:$B$68</definedName>
     <definedName name="prom" localSheetId="1">Лист3!$A$1:$B$49</definedName>
     <definedName name="prom" localSheetId="2">Лист5!$A$1:$B$55</definedName>
   </definedNames>
@@ -47,11 +52,19 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="4" name="prom3" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\project_python\prom.csv" decimal="," thousands=" " tab="0" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="327">
   <si>
     <t>Наименование</t>
   </si>
@@ -993,13 +1006,52 @@
   </si>
   <si>
     <t>На сайте</t>
+  </si>
+  <si>
+    <t>Накладка для шин MS PRO 150</t>
+  </si>
+  <si>
+    <t>Накладка для шин MS PRO 180</t>
+  </si>
+  <si>
+    <t>Накладка для шин MS PRO 210</t>
+  </si>
+  <si>
+    <t>Ярус MS Pro 150х60</t>
+  </si>
+  <si>
+    <t>Ярус MS Pro 150х80</t>
+  </si>
+  <si>
+    <t>Ярус MS Pro 150х100</t>
+  </si>
+  <si>
+    <t>Ярус MS Pro 180х60</t>
+  </si>
+  <si>
+    <t>Ярус MS Pro 180х80</t>
+  </si>
+  <si>
+    <t>Ярус MS Pro 180х100</t>
+  </si>
+  <si>
+    <t>Ярус MS Pro 210х60</t>
+  </si>
+  <si>
+    <t>Ярус MS Pro 210х80</t>
+  </si>
+  <si>
+    <t>Ярус MS Pro 210х100</t>
+  </si>
+  <si>
+    <t>Расхождение</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1025,6 +1077,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1034,7 +1095,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1042,15 +1103,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1070,6 +1151,10 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="prom" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="prom" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1359,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F275"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A42" sqref="A1:D1048576"/>
+    <sheetView topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="A256" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1391,12 +1476,13 @@
       <c r="B2">
         <v>3158</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="e">
+        <f>VLOOKUP(A:A,E:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D2" t="e">
         <f>B2-C2</f>
-        <v>3158</v>
+        <v>#N/A</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -1412,12 +1498,13 @@
       <c r="B3">
         <v>2969</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">B3-C3</f>
-        <v>2969</v>
+      <c r="C3" t="e">
+        <f t="shared" ref="C3:C66" si="0">VLOOKUP(A:A,E:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D3" t="e">
+        <f t="shared" ref="D3:D66" si="1">B3-C3</f>
+        <v>#N/A</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -1433,12 +1520,13 @@
       <c r="B4">
         <v>3891</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="C4" t="e">
         <f t="shared" si="0"/>
-        <v>3891</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -1454,12 +1542,13 @@
       <c r="B5">
         <v>1970</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="C5" t="e">
         <f t="shared" si="0"/>
-        <v>1970</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -1475,12 +1564,13 @@
       <c r="B6">
         <v>3277</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="C6" t="e">
         <f t="shared" si="0"/>
-        <v>3277</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D6" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E6" t="s">
         <v>306</v>
@@ -1496,12 +1586,13 @@
       <c r="B7">
         <v>3836</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="C7" t="e">
         <f t="shared" si="0"/>
-        <v>3836</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D7" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
@@ -1517,12 +1608,13 @@
       <c r="B8">
         <v>4871</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="C8" t="e">
         <f t="shared" si="0"/>
-        <v>4871</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D8" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E8" t="s">
         <v>41</v>
@@ -1538,12 +1630,13 @@
       <c r="B9">
         <v>4416</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="C9" t="e">
         <f t="shared" si="0"/>
-        <v>4416</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E9" t="s">
         <v>42</v>
@@ -1559,12 +1652,13 @@
       <c r="B10">
         <v>4715</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="C10" t="e">
         <f t="shared" si="0"/>
-        <v>4715</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E10" t="s">
         <v>307</v>
@@ -1580,12 +1674,13 @@
       <c r="B11">
         <v>111</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
+      <c r="C11" t="e">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E11" t="s">
         <v>308</v>
@@ -1601,12 +1696,13 @@
       <c r="B12">
         <v>72</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
+      <c r="C12" t="e">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E12" t="s">
         <v>309</v>
@@ -1623,10 +1719,11 @@
         <v>191</v>
       </c>
       <c r="C13">
+        <f t="shared" si="0"/>
         <v>191</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E13" t="s">
@@ -1644,10 +1741,11 @@
         <v>224</v>
       </c>
       <c r="C14">
+        <f t="shared" si="0"/>
         <v>224</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E14" t="s">
@@ -1665,10 +1763,11 @@
         <v>248</v>
       </c>
       <c r="C15">
+        <f t="shared" si="0"/>
         <v>248</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E15" t="s">
@@ -1686,10 +1785,11 @@
         <v>286</v>
       </c>
       <c r="C16">
+        <f t="shared" si="0"/>
         <v>286</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E16" t="s">
@@ -1707,10 +1807,11 @@
         <v>357</v>
       </c>
       <c r="C17">
+        <f t="shared" si="0"/>
         <v>357</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E17" t="s">
@@ -1727,12 +1828,13 @@
       <c r="B18">
         <v>72</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
+      <c r="C18" t="e">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E18" t="s">
         <v>95</v>
@@ -1748,12 +1850,13 @@
       <c r="B19">
         <v>111</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
+      <c r="C19" t="e">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D19" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E19" t="s">
         <v>96</v>
@@ -1770,10 +1873,11 @@
         <v>249</v>
       </c>
       <c r="C20">
+        <f t="shared" si="0"/>
         <v>249</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E20" t="s">
@@ -1791,10 +1895,11 @@
         <v>273</v>
       </c>
       <c r="C21">
+        <f t="shared" si="0"/>
         <v>273</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E21" t="s">
@@ -1812,10 +1917,11 @@
         <v>299</v>
       </c>
       <c r="C22">
+        <f t="shared" si="0"/>
         <v>299</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E22" t="s">
@@ -1833,10 +1939,11 @@
         <v>346</v>
       </c>
       <c r="C23">
+        <f t="shared" si="0"/>
         <v>346</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E23" t="s">
@@ -1854,10 +1961,11 @@
         <v>365</v>
       </c>
       <c r="C24">
+        <f t="shared" si="0"/>
         <v>365</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E24" t="s">
@@ -1875,10 +1983,11 @@
         <v>403</v>
       </c>
       <c r="C25">
+        <f t="shared" si="0"/>
         <v>403</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E25" t="s">
@@ -1896,10 +2005,11 @@
         <v>495</v>
       </c>
       <c r="C26">
+        <f t="shared" si="0"/>
         <v>495</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E26" t="s">
@@ -1917,10 +2027,11 @@
         <v>505</v>
       </c>
       <c r="C27">
+        <f t="shared" si="0"/>
         <v>505</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E27" t="s">
@@ -1937,12 +2048,13 @@
       <c r="B28">
         <v>72</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
+      <c r="C28" t="e">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D28" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E28" t="s">
         <v>294</v>
@@ -1958,12 +2070,13 @@
       <c r="B29">
         <v>111</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
+      <c r="C29" t="e">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D29" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E29" t="s">
         <v>91</v>
@@ -1980,11 +2093,12 @@
         <v>371</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
         <f t="shared" si="0"/>
         <v>371</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E30" t="s">
         <v>295</v>
@@ -2001,11 +2115,12 @@
         <v>403</v>
       </c>
       <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
         <f t="shared" si="0"/>
         <v>403</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E31" t="s">
         <v>296</v>
@@ -2022,11 +2137,12 @@
         <v>445</v>
       </c>
       <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
         <f t="shared" si="0"/>
         <v>445</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
         <v>297</v>
@@ -2043,11 +2159,12 @@
         <v>516</v>
       </c>
       <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
         <f t="shared" si="0"/>
         <v>516</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
         <v>298</v>
@@ -2064,11 +2181,12 @@
         <v>665</v>
       </c>
       <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
         <f t="shared" si="0"/>
         <v>665</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E34" t="s">
         <v>299</v>
@@ -2084,12 +2202,13 @@
       <c r="B35">
         <v>870</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
+      <c r="C35" t="e">
         <f t="shared" si="0"/>
-        <v>870</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D35" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E35" t="s">
         <v>300</v>
@@ -2105,12 +2224,13 @@
       <c r="B36">
         <v>1083</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
+      <c r="C36" t="e">
         <f t="shared" si="0"/>
-        <v>1083</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D36" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E36" t="s">
         <v>301</v>
@@ -2126,12 +2246,13 @@
       <c r="B37">
         <v>1290</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
+      <c r="C37" t="e">
         <f t="shared" si="0"/>
-        <v>1290</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D37" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E37" t="s">
         <v>302</v>
@@ -2147,12 +2268,13 @@
       <c r="B38">
         <v>1581</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
+      <c r="C38" t="e">
         <f t="shared" si="0"/>
-        <v>1581</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D38" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E38" t="s">
         <v>97</v>
@@ -2168,12 +2290,13 @@
       <c r="B39">
         <v>440</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
+      <c r="C39" t="e">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D39" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E39" t="s">
         <v>303</v>
@@ -2190,10 +2313,11 @@
         <v>527</v>
       </c>
       <c r="C40">
+        <f t="shared" si="0"/>
         <v>527</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E40" t="s">
@@ -2211,10 +2335,11 @@
         <v>623</v>
       </c>
       <c r="C41">
+        <f t="shared" si="0"/>
         <v>623</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E41" t="s">
@@ -2232,10 +2357,11 @@
         <v>751</v>
       </c>
       <c r="C42">
+        <f t="shared" si="0"/>
         <v>751</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E42" t="s">
@@ -2252,12 +2378,13 @@
       <c r="B43">
         <v>517</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
+      <c r="C43" t="e">
         <f t="shared" si="0"/>
-        <v>517</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D43" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E43" t="s">
         <v>100</v>
@@ -2273,12 +2400,13 @@
       <c r="B44">
         <v>523</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
+      <c r="C44" t="e">
         <f t="shared" si="0"/>
-        <v>523</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D44" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E44" t="s">
         <v>101</v>
@@ -2294,12 +2422,13 @@
       <c r="B45">
         <v>663</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
+      <c r="C45" t="e">
         <f t="shared" si="0"/>
-        <v>663</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D45" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E45" t="s">
         <v>102</v>
@@ -2315,12 +2444,13 @@
       <c r="B46">
         <v>778</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
+      <c r="C46" t="e">
         <f t="shared" si="0"/>
-        <v>778</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D46" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E46" t="s">
         <v>103</v>
@@ -2336,12 +2466,13 @@
       <c r="B47">
         <v>921</v>
       </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
+      <c r="C47" t="e">
         <f t="shared" si="0"/>
-        <v>921</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D47" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E47" t="s">
         <v>104</v>
@@ -2357,12 +2488,13 @@
       <c r="B48">
         <v>578</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
+      <c r="C48" t="e">
         <f t="shared" si="0"/>
-        <v>578</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D48" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E48" t="s">
         <v>106</v>
@@ -2378,12 +2510,13 @@
       <c r="B49">
         <v>715</v>
       </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
+      <c r="C49" t="e">
         <f t="shared" si="0"/>
-        <v>715</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D49" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E49" t="s">
         <v>107</v>
@@ -2399,12 +2532,13 @@
       <c r="B50">
         <v>825</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
+      <c r="C50" t="e">
         <f t="shared" si="0"/>
-        <v>825</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D50" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E50" t="s">
         <v>289</v>
@@ -2420,12 +2554,13 @@
       <c r="B51">
         <v>969</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
+      <c r="C51" t="e">
         <f t="shared" si="0"/>
-        <v>969</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D51" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E51" t="s">
         <v>290</v>
@@ -2441,12 +2576,13 @@
       <c r="B52">
         <v>833</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
+      <c r="C52" t="e">
         <f t="shared" si="0"/>
-        <v>833</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D52" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E52" t="s">
         <v>291</v>
@@ -2462,12 +2598,13 @@
       <c r="B53">
         <v>956</v>
       </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
+      <c r="C53" t="e">
         <f t="shared" si="0"/>
-        <v>956</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D53" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E53" t="s">
         <v>95</v>
@@ -2483,12 +2620,13 @@
       <c r="B54">
         <v>1168</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
+      <c r="C54" t="e">
         <f t="shared" si="0"/>
-        <v>1168</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D54" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E54" t="s">
         <v>96</v>
@@ -2504,12 +2642,13 @@
       <c r="B55">
         <v>1340</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
+      <c r="C55" t="e">
         <f t="shared" si="0"/>
-        <v>1340</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D55" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E55" t="s">
         <v>92</v>
@@ -2525,12 +2664,13 @@
       <c r="B56">
         <v>1017</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
+      <c r="C56" t="e">
         <f t="shared" si="0"/>
-        <v>1017</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D56" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E56" t="s">
         <v>93</v>
@@ -2546,12 +2686,13 @@
       <c r="B57">
         <v>1229</v>
       </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
+      <c r="C57" t="e">
         <f t="shared" si="0"/>
-        <v>1229</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D57" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E57" t="s">
         <v>94</v>
@@ -2567,12 +2708,13 @@
       <c r="B58">
         <v>1456</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
+      <c r="C58" t="e">
         <f t="shared" si="0"/>
-        <v>1456</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E58" t="s">
         <v>76</v>
@@ -2588,12 +2730,13 @@
       <c r="B59">
         <v>1792</v>
       </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
+      <c r="C59" t="e">
         <f t="shared" si="0"/>
-        <v>1792</v>
+        <v>#N/A</v>
+      </c>
+      <c r="D59" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="E59" t="s">
         <v>77</v>
@@ -2610,10 +2753,11 @@
         <v>562</v>
       </c>
       <c r="C60">
+        <f t="shared" si="0"/>
         <v>578</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-16</v>
       </c>
       <c r="E60" t="s">
@@ -2631,10 +2775,11 @@
         <v>694</v>
       </c>
       <c r="C61">
+        <f t="shared" si="0"/>
         <v>715</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-21</v>
       </c>
       <c r="E61" t="s">
@@ -2652,10 +2797,11 @@
         <v>800</v>
       </c>
       <c r="C62">
+        <f t="shared" si="0"/>
         <v>825</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-25</v>
       </c>
       <c r="E62" t="s">
@@ -2673,10 +2819,11 @@
         <v>940</v>
       </c>
       <c r="C63">
+        <f t="shared" si="0"/>
         <v>969</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-29</v>
       </c>
       <c r="E63" t="s">
@@ -2694,10 +2841,11 @@
         <v>808</v>
       </c>
       <c r="C64">
+        <f t="shared" si="0"/>
         <v>833</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-25</v>
       </c>
       <c r="E64" t="s">
@@ -2715,10 +2863,11 @@
         <v>928</v>
       </c>
       <c r="C65">
+        <f t="shared" si="0"/>
         <v>956</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-28</v>
       </c>
       <c r="E65" t="s">
@@ -2736,10 +2885,11 @@
         <v>1133</v>
       </c>
       <c r="C66">
+        <f t="shared" si="0"/>
         <v>1168</v>
       </c>
       <c r="D66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-35</v>
       </c>
       <c r="E66" t="s">
@@ -2757,10 +2907,11 @@
         <v>1300</v>
       </c>
       <c r="C67">
+        <f t="shared" ref="C67:C130" si="2">VLOOKUP(A:A,E:F,2,0)</f>
         <v>1340</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="1">B67-C67</f>
+        <f t="shared" ref="D67:D130" si="3">B67-C67</f>
         <v>-40</v>
       </c>
       <c r="E67" t="s">
@@ -2778,10 +2929,11 @@
         <v>987</v>
       </c>
       <c r="C68">
+        <f t="shared" si="2"/>
         <v>1017</v>
       </c>
       <c r="D68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-30</v>
       </c>
       <c r="E68" t="s">
@@ -2799,10 +2951,11 @@
         <v>1192</v>
       </c>
       <c r="C69">
+        <f t="shared" si="2"/>
         <v>1229</v>
       </c>
       <c r="D69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-37</v>
       </c>
       <c r="E69" t="s">
@@ -2820,10 +2973,11 @@
         <v>1413</v>
       </c>
       <c r="C70">
+        <f t="shared" si="2"/>
         <v>1456</v>
       </c>
       <c r="D70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-43</v>
       </c>
       <c r="E70" t="s">
@@ -2841,10 +2995,11 @@
         <v>1738</v>
       </c>
       <c r="C71">
+        <f t="shared" si="2"/>
         <v>1792</v>
       </c>
       <c r="D71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-54</v>
       </c>
       <c r="E71" t="s">
@@ -2862,11 +3017,12 @@
         <v>796</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>796</v>
       </c>
       <c r="D72">
-        <f t="shared" si="1"/>
-        <v>796</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E72" t="s">
         <v>302</v>
@@ -2883,11 +3039,12 @@
         <v>928</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>928</v>
       </c>
       <c r="D73">
-        <f t="shared" si="1"/>
-        <v>928</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E73" t="s">
         <v>97</v>
@@ -2904,11 +3061,12 @@
         <v>1064</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1064</v>
       </c>
       <c r="D74">
-        <f t="shared" si="1"/>
-        <v>1064</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E74" t="s">
         <v>303</v>
@@ -2925,11 +3083,12 @@
         <v>1209</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1209</v>
       </c>
       <c r="D75">
-        <f t="shared" si="1"/>
-        <v>1209</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E75" t="s">
         <v>304</v>
@@ -2946,10 +3105,11 @@
         <v>205</v>
       </c>
       <c r="C76">
+        <f t="shared" si="2"/>
         <v>205</v>
       </c>
       <c r="D76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E76" t="s">
@@ -2967,10 +3127,11 @@
         <v>265</v>
       </c>
       <c r="C77">
+        <f t="shared" si="2"/>
         <v>265</v>
       </c>
       <c r="D77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E77" t="s">
@@ -2988,10 +3149,11 @@
         <v>312</v>
       </c>
       <c r="C78">
+        <f t="shared" si="2"/>
         <v>312</v>
       </c>
       <c r="D78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E78" t="s">
@@ -3008,12 +3170,13 @@
       <c r="B79">
         <v>375</v>
       </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="1"/>
-        <v>375</v>
+      <c r="C79" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D79" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
       <c r="E79" t="s">
         <v>101</v>
@@ -3029,12 +3192,13 @@
       <c r="B80">
         <v>58</v>
       </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="1"/>
-        <v>58</v>
+      <c r="C80" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D80" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
       <c r="E80" t="s">
         <v>102</v>
@@ -3050,12 +3214,13 @@
       <c r="B81">
         <v>65</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="1"/>
-        <v>65</v>
+      <c r="C81" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D81" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
       <c r="E81" t="s">
         <v>103</v>
@@ -3071,12 +3236,13 @@
       <c r="B82">
         <v>78</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="1"/>
-        <v>78</v>
+      <c r="C82" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D82" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
       <c r="E82" t="s">
         <v>104</v>
@@ -3092,12 +3258,13 @@
       <c r="B83">
         <v>91</v>
       </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="1"/>
-        <v>91</v>
+      <c r="C83" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D83" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
       <c r="E83" t="s">
         <v>106</v>
@@ -3113,12 +3280,13 @@
       <c r="B84">
         <v>103</v>
       </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="1"/>
-        <v>103</v>
+      <c r="C84" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D84" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
       <c r="E84" t="s">
         <v>107</v>
@@ -3134,12 +3302,13 @@
       <c r="B85">
         <v>124</v>
       </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="1"/>
-        <v>124</v>
+      <c r="C85" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D85" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
       <c r="E85" t="s">
         <v>60</v>
@@ -3155,12 +3324,13 @@
       <c r="B86">
         <v>150</v>
       </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="1"/>
-        <v>150</v>
+      <c r="C86" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D86" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
       <c r="E86" t="s">
         <v>61</v>
@@ -3176,12 +3346,13 @@
       <c r="B87">
         <v>173</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="1"/>
-        <v>173</v>
+      <c r="C87" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D87" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
       <c r="E87" t="s">
         <v>62</v>
@@ -3197,12 +3368,13 @@
       <c r="B88">
         <v>266</v>
       </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="1"/>
-        <v>266</v>
+      <c r="C88" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D88" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
       <c r="E88" t="s">
         <v>63</v>
@@ -3218,12 +3390,13 @@
       <c r="B89">
         <v>178</v>
       </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="1"/>
-        <v>178</v>
+      <c r="C89" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D89" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
       <c r="E89" t="s">
         <v>64</v>
@@ -3239,12 +3412,13 @@
       <c r="B90">
         <v>222</v>
       </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="1"/>
-        <v>222</v>
+      <c r="C90" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D90" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
       <c r="E90" t="s">
         <v>65</v>
@@ -3261,10 +3435,11 @@
         <v>500</v>
       </c>
       <c r="C91">
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="D91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E91" t="s">
@@ -3282,10 +3457,11 @@
         <v>111</v>
       </c>
       <c r="C92">
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="D92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E92" t="s">
@@ -3303,10 +3479,11 @@
         <v>133</v>
       </c>
       <c r="C93">
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="D93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E93" t="s">
@@ -3324,10 +3501,11 @@
         <v>167</v>
       </c>
       <c r="C94">
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="D94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E94" t="s">
@@ -3345,10 +3523,11 @@
         <v>57</v>
       </c>
       <c r="C95">
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="D95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E95" t="s">
@@ -3366,10 +3545,11 @@
         <v>70</v>
       </c>
       <c r="C96">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="D96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E96" t="s">
@@ -3387,10 +3567,11 @@
         <v>329</v>
       </c>
       <c r="C97">
+        <f t="shared" si="2"/>
         <v>329</v>
       </c>
       <c r="D97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E97" t="s">
@@ -3408,10 +3589,11 @@
         <v>626</v>
       </c>
       <c r="C98">
+        <f t="shared" si="2"/>
         <v>626</v>
       </c>
       <c r="D98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E98" t="s">
@@ -3429,10 +3611,11 @@
         <v>1038</v>
       </c>
       <c r="C99">
+        <f t="shared" si="2"/>
         <v>1038</v>
       </c>
       <c r="D99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E99" t="s">
@@ -3450,10 +3633,11 @@
         <v>1336</v>
       </c>
       <c r="C100">
+        <f t="shared" si="2"/>
         <v>1336</v>
       </c>
       <c r="D100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E100" t="s">
@@ -3471,10 +3655,11 @@
         <v>1555</v>
       </c>
       <c r="C101">
+        <f t="shared" si="2"/>
         <v>1555</v>
       </c>
       <c r="D101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E101" t="s">
@@ -3492,10 +3677,11 @@
         <v>1697</v>
       </c>
       <c r="C102">
+        <f t="shared" si="2"/>
         <v>1697</v>
       </c>
       <c r="D102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E102" t="s">
@@ -3513,10 +3699,11 @@
         <v>818</v>
       </c>
       <c r="C103">
+        <f t="shared" si="2"/>
         <v>818</v>
       </c>
       <c r="D103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E103" t="s">
@@ -3534,10 +3721,11 @@
         <v>948</v>
       </c>
       <c r="C104">
+        <f t="shared" si="2"/>
         <v>948</v>
       </c>
       <c r="D104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E104" t="s">
@@ -3554,12 +3742,19 @@
       <c r="B105">
         <v>1027</v>
       </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
-        <f t="shared" si="1"/>
-        <v>1027</v>
+      <c r="C105" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D105" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E105" t="s">
+        <v>72</v>
+      </c>
+      <c r="F105">
+        <v>796</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3570,11 +3765,18 @@
         <v>2148</v>
       </c>
       <c r="C106">
+        <f t="shared" si="2"/>
         <v>2148</v>
       </c>
       <c r="D106">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>73</v>
+      </c>
+      <c r="F106">
+        <v>928</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3585,11 +3787,18 @@
         <v>2806</v>
       </c>
       <c r="C107">
+        <f t="shared" si="2"/>
         <v>2806</v>
       </c>
       <c r="D107">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F107">
+        <v>1064</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3599,12 +3808,19 @@
       <c r="B108">
         <v>3050</v>
       </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <f t="shared" si="1"/>
-        <v>3050</v>
+      <c r="C108" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D108" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E108" t="s">
+        <v>75</v>
+      </c>
+      <c r="F108">
+        <v>1209</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3614,12 +3830,19 @@
       <c r="B109">
         <v>1548</v>
       </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109">
-        <f t="shared" si="1"/>
-        <v>1548</v>
+      <c r="C109" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D109" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E109" t="s">
+        <v>30</v>
+      </c>
+      <c r="F109">
+        <v>371</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3629,12 +3852,19 @@
       <c r="B110">
         <v>3722</v>
       </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <f t="shared" si="1"/>
-        <v>3722</v>
+      <c r="C110" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D110" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E110" t="s">
+        <v>31</v>
+      </c>
+      <c r="F110">
+        <v>403</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3644,12 +3874,19 @@
       <c r="B111">
         <v>4725</v>
       </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111">
-        <f t="shared" si="1"/>
-        <v>4725</v>
+      <c r="C111" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D111" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E111" t="s">
+        <v>32</v>
+      </c>
+      <c r="F111">
+        <v>445</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3659,105 +3896,154 @@
       <c r="B112">
         <v>2054</v>
       </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112">
-        <f t="shared" si="1"/>
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="C112" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D112" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E112" t="s">
+        <v>33</v>
+      </c>
+      <c r="F112">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>113</v>
       </c>
       <c r="B113">
         <v>283</v>
       </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113">
-        <f t="shared" si="1"/>
-        <v>283</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="C113" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D113" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E113" t="s">
+        <v>34</v>
+      </c>
+      <c r="F113">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>114</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="C114" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D114" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E114" t="s">
+        <v>158</v>
+      </c>
+      <c r="F114">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>115</v>
       </c>
       <c r="B115">
         <v>1637</v>
       </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115">
-        <f t="shared" si="1"/>
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="C115" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D115" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E115" t="s">
+        <v>159</v>
+      </c>
+      <c r="F115">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>116</v>
       </c>
       <c r="B116">
         <v>2103</v>
       </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116">
-        <f t="shared" si="1"/>
-        <v>2103</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="C116" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D116" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E116" t="s">
+        <v>160</v>
+      </c>
+      <c r="F116">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>117</v>
       </c>
       <c r="B117">
         <v>2436</v>
       </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-      <c r="D117">
-        <f t="shared" si="1"/>
-        <v>2436</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="C117" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D117" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E117" t="s">
+        <v>161</v>
+      </c>
+      <c r="F117">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>118</v>
       </c>
       <c r="B118">
         <v>2081</v>
       </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="D118">
-        <f t="shared" si="1"/>
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="C118" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D118" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E118" t="s">
+        <v>162</v>
+      </c>
+      <c r="F118">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -3765,14 +4051,21 @@
         <v>2103</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2103</v>
       </c>
       <c r="D119">
-        <f t="shared" si="1"/>
-        <v>2103</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>134</v>
+      </c>
+      <c r="F119">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -3780,14 +4073,21 @@
         <v>2170</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2170</v>
       </c>
       <c r="D120">
-        <f t="shared" si="1"/>
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>135</v>
+      </c>
+      <c r="F120">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -3795,14 +4095,21 @@
         <v>2248</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2248</v>
       </c>
       <c r="D121">
-        <f t="shared" si="1"/>
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>136</v>
+      </c>
+      <c r="F121">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -3810,14 +4117,21 @@
         <v>2348</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2348</v>
       </c>
       <c r="D122">
-        <f t="shared" si="1"/>
-        <v>2348</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>137</v>
+      </c>
+      <c r="F122">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -3825,14 +4139,21 @@
         <v>2492</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2492</v>
       </c>
       <c r="D123">
-        <f t="shared" si="1"/>
-        <v>2492</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>138</v>
+      </c>
+      <c r="F123">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -3840,14 +4161,21 @@
         <v>2625</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2625</v>
       </c>
       <c r="D124">
-        <f t="shared" si="1"/>
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>139</v>
+      </c>
+      <c r="F124">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -3855,14 +4183,21 @@
         <v>2714</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2714</v>
       </c>
       <c r="D125">
-        <f t="shared" si="1"/>
-        <v>2714</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>140</v>
+      </c>
+      <c r="F125">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -3870,14 +4205,21 @@
         <v>2792</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2792</v>
       </c>
       <c r="D126">
-        <f t="shared" si="1"/>
-        <v>2792</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>141</v>
+      </c>
+      <c r="F126">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -3885,14 +4227,21 @@
         <v>2858</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2858</v>
       </c>
       <c r="D127">
-        <f t="shared" si="1"/>
-        <v>2858</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>142</v>
+      </c>
+      <c r="F127">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -3900,14 +4249,21 @@
         <v>3025</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3025</v>
       </c>
       <c r="D128">
-        <f t="shared" si="1"/>
-        <v>3025</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>143</v>
+      </c>
+      <c r="F128">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -3915,14 +4271,21 @@
         <v>3069</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3069</v>
       </c>
       <c r="D129">
-        <f t="shared" si="1"/>
-        <v>3069</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>144</v>
+      </c>
+      <c r="F129">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -3930,14 +4293,21 @@
         <v>3225</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3225</v>
       </c>
       <c r="D130">
-        <f t="shared" si="1"/>
-        <v>3225</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>145</v>
+      </c>
+      <c r="F130">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -3945,14 +4315,21 @@
         <v>3313</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <f t="shared" ref="C131:C194" si="4">VLOOKUP(A:A,E:F,2,0)</f>
+        <v>3313</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="2">B131-C131</f>
-        <v>3313</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <f t="shared" ref="D131:D194" si="5">B131-C131</f>
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>146</v>
+      </c>
+      <c r="F131">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -3960,14 +4337,21 @@
         <v>3458</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3458</v>
       </c>
       <c r="D132">
-        <f t="shared" si="2"/>
-        <v>3458</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>147</v>
+      </c>
+      <c r="F132">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -3975,14 +4359,21 @@
         <v>3569</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3569</v>
       </c>
       <c r="D133">
-        <f t="shared" si="2"/>
-        <v>3569</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>148</v>
+      </c>
+      <c r="F133">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -3990,14 +4381,21 @@
         <v>2525</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2525</v>
       </c>
       <c r="D134">
-        <f t="shared" si="2"/>
-        <v>2525</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>167</v>
+      </c>
+      <c r="F134">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -4005,14 +4403,21 @@
         <v>2592</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2592</v>
       </c>
       <c r="D135">
-        <f t="shared" si="2"/>
-        <v>2592</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>168</v>
+      </c>
+      <c r="F135">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -4020,14 +4425,21 @@
         <v>2658</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2658</v>
       </c>
       <c r="D136">
-        <f t="shared" si="2"/>
-        <v>2658</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>169</v>
+      </c>
+      <c r="F136">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -4035,14 +4447,21 @@
         <v>2769</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2769</v>
       </c>
       <c r="D137">
-        <f t="shared" si="2"/>
-        <v>2769</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>170</v>
+      </c>
+      <c r="F137">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -4050,14 +4469,21 @@
         <v>2914</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2914</v>
       </c>
       <c r="D138">
-        <f t="shared" si="2"/>
-        <v>2914</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>171</v>
+      </c>
+      <c r="F138">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -4065,14 +4491,21 @@
         <v>3025</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3025</v>
       </c>
       <c r="D139">
-        <f t="shared" si="2"/>
-        <v>3025</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>314</v>
+      </c>
+      <c r="F139">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -4080,14 +4513,21 @@
         <v>3114</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3114</v>
       </c>
       <c r="D140">
-        <f t="shared" si="2"/>
-        <v>3114</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>315</v>
+      </c>
+      <c r="F140">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -4095,14 +4535,21 @@
         <v>3180</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3180</v>
       </c>
       <c r="D141">
-        <f t="shared" si="2"/>
-        <v>3180</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>316</v>
+      </c>
+      <c r="F141">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -4110,14 +4557,21 @@
         <v>3236</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3236</v>
       </c>
       <c r="D142">
-        <f t="shared" si="2"/>
-        <v>3236</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>174</v>
+      </c>
+      <c r="F142">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -4125,14 +4579,21 @@
         <v>3413</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3413</v>
       </c>
       <c r="D143">
-        <f t="shared" si="2"/>
-        <v>3413</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>175</v>
+      </c>
+      <c r="F143">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -4140,14 +4601,21 @@
         <v>3646</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3646</v>
       </c>
       <c r="D144">
-        <f t="shared" si="2"/>
-        <v>3646</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>176</v>
+      </c>
+      <c r="F144">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -4155,14 +4623,21 @@
         <v>3824</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3824</v>
       </c>
       <c r="D145">
-        <f t="shared" si="2"/>
-        <v>3824</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>177</v>
+      </c>
+      <c r="F145">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -4170,14 +4645,21 @@
         <v>3879</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3879</v>
       </c>
       <c r="D146">
-        <f t="shared" si="2"/>
-        <v>3879</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>178</v>
+      </c>
+      <c r="F146">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -4185,14 +4667,21 @@
         <v>4057</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4057</v>
       </c>
       <c r="D147">
-        <f t="shared" si="2"/>
-        <v>4057</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>317</v>
+      </c>
+      <c r="F147">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -4200,149 +4689,219 @@
         <v>4157</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4157</v>
       </c>
       <c r="D148">
-        <f t="shared" si="2"/>
-        <v>4157</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>318</v>
+      </c>
+      <c r="F148">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>149</v>
       </c>
       <c r="B149">
         <v>605</v>
       </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-      <c r="D149">
-        <f t="shared" si="2"/>
-        <v>605</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="C149" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D149" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E149" t="s">
+        <v>319</v>
+      </c>
+      <c r="F149">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>150</v>
       </c>
       <c r="B150">
         <v>672</v>
       </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-      <c r="D150">
-        <f t="shared" si="2"/>
-        <v>672</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="C150" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D150" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E150" t="s">
+        <v>320</v>
+      </c>
+      <c r="F150">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>151</v>
       </c>
       <c r="B151">
         <v>771</v>
       </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-      <c r="D151">
-        <f t="shared" si="2"/>
-        <v>771</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="C151" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D151" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E151" t="s">
+        <v>321</v>
+      </c>
+      <c r="F151">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>152</v>
       </c>
       <c r="B152">
         <v>916</v>
       </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-      <c r="D152">
-        <f t="shared" si="2"/>
-        <v>916</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="C152" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D152" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E152" t="s">
+        <v>322</v>
+      </c>
+      <c r="F152">
+        <v>5156</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>153</v>
       </c>
       <c r="B153">
         <v>622</v>
       </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-      <c r="D153">
-        <f t="shared" si="2"/>
-        <v>622</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="C153" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D153" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E153" t="s">
+        <v>323</v>
+      </c>
+      <c r="F153">
+        <v>4545</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>154</v>
       </c>
       <c r="B154">
         <v>694</v>
       </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-      <c r="D154">
-        <f t="shared" si="2"/>
-        <v>694</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="C154" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D154" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E154" t="s">
+        <v>324</v>
+      </c>
+      <c r="F154">
+        <v>4967</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>155</v>
       </c>
       <c r="B155">
         <v>777</v>
       </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-      <c r="D155">
-        <f t="shared" si="2"/>
-        <v>777</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="C155" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D155" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E155" t="s">
+        <v>325</v>
+      </c>
+      <c r="F155">
+        <v>5866</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>156</v>
       </c>
       <c r="B156">
         <v>849</v>
       </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
-      <c r="D156">
-        <f t="shared" si="2"/>
-        <v>849</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="C156" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D156" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E156" t="s">
+        <v>173</v>
+      </c>
+      <c r="F156">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>157</v>
       </c>
       <c r="B157">
         <v>1210</v>
       </c>
-      <c r="C157">
-        <v>0</v>
-      </c>
-      <c r="D157">
-        <f t="shared" si="2"/>
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="C157" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D157" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E157" t="s">
+        <v>119</v>
+      </c>
+      <c r="F157">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -4350,14 +4909,21 @@
         <v>527</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>527</v>
       </c>
       <c r="D158">
-        <f t="shared" si="2"/>
-        <v>527</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>120</v>
+      </c>
+      <c r="F158">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -4365,14 +4931,21 @@
         <v>638</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>638</v>
       </c>
       <c r="D159">
-        <f t="shared" si="2"/>
-        <v>638</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>121</v>
+      </c>
+      <c r="F159">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -4380,14 +4953,21 @@
         <v>738</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>738</v>
       </c>
       <c r="D160">
-        <f t="shared" si="2"/>
-        <v>738</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>122</v>
+      </c>
+      <c r="F160">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -4395,14 +4975,21 @@
         <v>816</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>816</v>
       </c>
       <c r="D161">
-        <f t="shared" si="2"/>
-        <v>816</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E161" t="s">
+        <v>123</v>
+      </c>
+      <c r="F161">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -4410,74 +4997,109 @@
         <v>938</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>938</v>
       </c>
       <c r="D162">
-        <f t="shared" si="2"/>
-        <v>938</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>124</v>
+      </c>
+      <c r="F162">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>163</v>
       </c>
       <c r="B163">
         <v>638</v>
       </c>
-      <c r="C163">
-        <v>0</v>
-      </c>
-      <c r="D163">
-        <f t="shared" si="2"/>
-        <v>638</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="C163" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D163" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E163" t="s">
+        <v>125</v>
+      </c>
+      <c r="F163">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
         <v>164</v>
       </c>
       <c r="B164">
         <v>738</v>
       </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
-      <c r="D164">
-        <f t="shared" si="2"/>
-        <v>738</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="C164" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D164" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E164" t="s">
+        <v>126</v>
+      </c>
+      <c r="F164">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
         <v>165</v>
       </c>
       <c r="B165">
         <v>816</v>
       </c>
-      <c r="C165">
-        <v>0</v>
-      </c>
-      <c r="D165">
-        <f t="shared" si="2"/>
-        <v>816</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="C165" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D165" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E165" t="s">
+        <v>127</v>
+      </c>
+      <c r="F165">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>166</v>
       </c>
       <c r="B166">
         <v>938</v>
       </c>
-      <c r="C166">
-        <v>0</v>
-      </c>
-      <c r="D166">
-        <f t="shared" si="2"/>
-        <v>938</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="C166" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D166" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E166" t="s">
+        <v>128</v>
+      </c>
+      <c r="F166">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -4485,14 +5107,21 @@
         <v>94</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>94</v>
       </c>
       <c r="D167">
-        <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E167" t="s">
+        <v>129</v>
+      </c>
+      <c r="F167">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -4500,14 +5129,21 @@
         <v>105</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>105</v>
       </c>
       <c r="D168">
-        <f t="shared" si="2"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>130</v>
+      </c>
+      <c r="F168">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -4515,14 +5151,21 @@
         <v>105</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>105</v>
       </c>
       <c r="D169">
-        <f t="shared" si="2"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>131</v>
+      </c>
+      <c r="F169">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -4530,14 +5173,21 @@
         <v>128</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>128</v>
       </c>
       <c r="D170">
-        <f t="shared" si="2"/>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>132</v>
+      </c>
+      <c r="F170">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -4545,14 +5195,21 @@
         <v>183</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>183</v>
       </c>
       <c r="D171">
-        <f t="shared" si="2"/>
-        <v>183</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E171" t="s">
+        <v>133</v>
+      </c>
+      <c r="F171">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -4560,14 +5217,21 @@
         <v>28</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>28</v>
       </c>
       <c r="D172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>172</v>
+      </c>
+      <c r="F172">
         <v>28</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -4575,14 +5239,15 @@
         <v>56</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>56</v>
       </c>
       <c r="D173">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -4590,14 +5255,15 @@
         <v>216</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>216</v>
       </c>
       <c r="D174">
-        <f t="shared" si="2"/>
-        <v>216</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -4605,14 +5271,15 @@
         <v>266</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>266</v>
       </c>
       <c r="D175">
-        <f t="shared" si="2"/>
-        <v>266</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -4620,11 +5287,12 @@
         <v>339</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>339</v>
       </c>
       <c r="D176">
-        <f t="shared" si="2"/>
-        <v>339</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4635,11 +5303,12 @@
         <v>405</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>405</v>
       </c>
       <c r="D177">
-        <f t="shared" si="2"/>
-        <v>405</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4650,11 +5319,12 @@
         <v>516</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>516</v>
       </c>
       <c r="D178">
-        <f t="shared" si="2"/>
-        <v>516</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4664,12 +5334,13 @@
       <c r="B179">
         <v>216</v>
       </c>
-      <c r="C179">
-        <v>0</v>
-      </c>
-      <c r="D179">
-        <f t="shared" si="2"/>
-        <v>216</v>
+      <c r="C179" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D179" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4679,12 +5350,13 @@
       <c r="B180">
         <v>239</v>
       </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
-      <c r="D180">
-        <f t="shared" si="2"/>
-        <v>239</v>
+      <c r="C180" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D180" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4694,12 +5366,13 @@
       <c r="B181">
         <v>516</v>
       </c>
-      <c r="C181">
-        <v>0</v>
-      </c>
-      <c r="D181">
-        <f t="shared" si="2"/>
-        <v>516</v>
+      <c r="C181" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D181" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4709,12 +5382,13 @@
       <c r="B182">
         <v>1502</v>
       </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
-      <c r="D182">
-        <f t="shared" si="2"/>
-        <v>1502</v>
+      <c r="C182" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D182" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4724,12 +5398,13 @@
       <c r="B183">
         <v>1675</v>
       </c>
-      <c r="C183">
-        <v>0</v>
-      </c>
-      <c r="D183">
-        <f t="shared" si="2"/>
-        <v>1675</v>
+      <c r="C183" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D183" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4739,12 +5414,13 @@
       <c r="B184">
         <v>1879</v>
       </c>
-      <c r="C184">
-        <v>0</v>
-      </c>
-      <c r="D184">
-        <f t="shared" si="2"/>
-        <v>1879</v>
+      <c r="C184" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D184" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4754,12 +5430,13 @@
       <c r="B185">
         <v>1334</v>
       </c>
-      <c r="C185">
-        <v>0</v>
-      </c>
-      <c r="D185">
-        <f t="shared" si="2"/>
-        <v>1334</v>
+      <c r="C185" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D185" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4769,12 +5446,13 @@
       <c r="B186">
         <v>1373</v>
       </c>
-      <c r="C186">
-        <v>0</v>
-      </c>
-      <c r="D186">
-        <f t="shared" si="2"/>
-        <v>1373</v>
+      <c r="C186" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D186" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4784,12 +5462,13 @@
       <c r="B187">
         <v>1431</v>
       </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
-      <c r="D187">
-        <f t="shared" si="2"/>
-        <v>1431</v>
+      <c r="C187" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D187" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4799,12 +5478,13 @@
       <c r="B188">
         <v>1495</v>
       </c>
-      <c r="C188">
-        <v>0</v>
-      </c>
-      <c r="D188">
-        <f t="shared" si="2"/>
-        <v>1495</v>
+      <c r="C188" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D188" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4814,12 +5494,13 @@
       <c r="B189">
         <v>1675</v>
       </c>
-      <c r="C189">
-        <v>0</v>
-      </c>
-      <c r="D189">
-        <f t="shared" si="2"/>
-        <v>1675</v>
+      <c r="C189" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D189" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4829,12 +5510,13 @@
       <c r="B190">
         <v>1879</v>
       </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-      <c r="D190">
-        <f t="shared" si="2"/>
-        <v>1879</v>
+      <c r="C190" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D190" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4844,12 +5526,13 @@
       <c r="B191">
         <v>988</v>
       </c>
-      <c r="C191">
-        <v>0</v>
-      </c>
-      <c r="D191">
-        <f t="shared" si="2"/>
-        <v>988</v>
+      <c r="C191" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D191" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4859,12 +5542,13 @@
       <c r="B192">
         <v>1456</v>
       </c>
-      <c r="C192">
-        <v>0</v>
-      </c>
-      <c r="D192">
-        <f t="shared" si="2"/>
-        <v>1456</v>
+      <c r="C192" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D192" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4874,12 +5558,13 @@
       <c r="B193">
         <v>1538</v>
       </c>
-      <c r="C193">
-        <v>0</v>
-      </c>
-      <c r="D193">
-        <f t="shared" si="2"/>
-        <v>1538</v>
+      <c r="C193" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D193" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4889,12 +5574,13 @@
       <c r="B194">
         <v>424</v>
       </c>
-      <c r="C194">
-        <v>0</v>
-      </c>
-      <c r="D194">
-        <f t="shared" si="2"/>
-        <v>424</v>
+      <c r="C194" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D194" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4904,12 +5590,13 @@
       <c r="B195">
         <v>456</v>
       </c>
-      <c r="C195">
-        <v>0</v>
-      </c>
-      <c r="D195">
-        <f t="shared" ref="D195:D258" si="3">B195-C195</f>
-        <v>456</v>
+      <c r="C195" t="e">
+        <f t="shared" ref="C195:C258" si="6">VLOOKUP(A:A,E:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D195" t="e">
+        <f t="shared" ref="D195:D258" si="7">B195-C195</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4919,12 +5606,13 @@
       <c r="B196">
         <v>521</v>
       </c>
-      <c r="C196">
-        <v>0</v>
-      </c>
-      <c r="D196">
-        <f t="shared" si="3"/>
-        <v>521</v>
+      <c r="C196" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D196" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4934,12 +5622,13 @@
       <c r="B197">
         <v>840</v>
       </c>
-      <c r="C197">
-        <v>0</v>
-      </c>
-      <c r="D197">
-        <f t="shared" si="3"/>
-        <v>840</v>
+      <c r="C197" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D197" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4949,12 +5638,13 @@
       <c r="B198">
         <v>891</v>
       </c>
-      <c r="C198">
-        <v>0</v>
-      </c>
-      <c r="D198">
-        <f t="shared" si="3"/>
-        <v>891</v>
+      <c r="C198" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D198" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4964,12 +5654,13 @@
       <c r="B199">
         <v>1059</v>
       </c>
-      <c r="C199">
-        <v>0</v>
-      </c>
-      <c r="D199">
-        <f t="shared" si="3"/>
-        <v>1059</v>
+      <c r="C199" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D199" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4979,12 +5670,13 @@
       <c r="B200">
         <v>1071</v>
       </c>
-      <c r="C200">
-        <v>0</v>
-      </c>
-      <c r="D200">
-        <f t="shared" si="3"/>
-        <v>1071</v>
+      <c r="C200" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D200" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4994,12 +5686,13 @@
       <c r="B201">
         <v>1154</v>
       </c>
-      <c r="C201">
-        <v>0</v>
-      </c>
-      <c r="D201">
-        <f t="shared" si="3"/>
-        <v>1154</v>
+      <c r="C201" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D201" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5009,12 +5702,13 @@
       <c r="B202">
         <v>1373</v>
       </c>
-      <c r="C202">
-        <v>0</v>
-      </c>
-      <c r="D202">
-        <f t="shared" si="3"/>
-        <v>1373</v>
+      <c r="C202" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D202" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5024,12 +5718,13 @@
       <c r="B203">
         <v>1219</v>
       </c>
-      <c r="C203">
-        <v>0</v>
-      </c>
-      <c r="D203">
-        <f t="shared" si="3"/>
-        <v>1219</v>
+      <c r="C203" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D203" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5039,12 +5734,13 @@
       <c r="B204">
         <v>1373</v>
       </c>
-      <c r="C204">
-        <v>0</v>
-      </c>
-      <c r="D204">
-        <f t="shared" si="3"/>
-        <v>1373</v>
+      <c r="C204" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D204" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5054,12 +5750,13 @@
       <c r="B205">
         <v>1744</v>
       </c>
-      <c r="C205">
-        <v>0</v>
-      </c>
-      <c r="D205">
-        <f t="shared" si="3"/>
-        <v>1744</v>
+      <c r="C205" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D205" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5069,12 +5766,13 @@
       <c r="B206">
         <v>3418</v>
       </c>
-      <c r="C206">
-        <v>0</v>
-      </c>
-      <c r="D206">
-        <f t="shared" si="3"/>
-        <v>3418</v>
+      <c r="C206" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D206" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5084,12 +5782,13 @@
       <c r="B207">
         <v>16283</v>
       </c>
-      <c r="C207">
-        <v>0</v>
-      </c>
-      <c r="D207">
-        <f t="shared" si="3"/>
-        <v>16283</v>
+      <c r="C207" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D207" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5099,12 +5798,13 @@
       <c r="B208">
         <v>5085</v>
       </c>
-      <c r="C208">
-        <v>0</v>
-      </c>
-      <c r="D208">
-        <f t="shared" si="3"/>
-        <v>5085</v>
+      <c r="C208" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D208" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5114,12 +5814,13 @@
       <c r="B209">
         <v>1071</v>
       </c>
-      <c r="C209">
-        <v>0</v>
-      </c>
-      <c r="D209">
-        <f t="shared" si="3"/>
-        <v>1071</v>
+      <c r="C209" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D209" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5129,12 +5830,13 @@
       <c r="B210">
         <v>1290</v>
       </c>
-      <c r="C210">
-        <v>0</v>
-      </c>
-      <c r="D210">
-        <f t="shared" si="3"/>
-        <v>1290</v>
+      <c r="C210" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D210" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5144,12 +5846,13 @@
       <c r="B211">
         <v>1456</v>
       </c>
-      <c r="C211">
-        <v>0</v>
-      </c>
-      <c r="D211">
-        <f t="shared" si="3"/>
-        <v>1456</v>
+      <c r="C211" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D211" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5159,12 +5862,13 @@
       <c r="B212">
         <v>1482</v>
       </c>
-      <c r="C212">
-        <v>0</v>
-      </c>
-      <c r="D212">
-        <f t="shared" si="3"/>
-        <v>1482</v>
+      <c r="C212" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D212" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5174,12 +5878,13 @@
       <c r="B213">
         <v>1860</v>
       </c>
-      <c r="C213">
-        <v>0</v>
-      </c>
-      <c r="D213">
-        <f t="shared" si="3"/>
-        <v>1860</v>
+      <c r="C213" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D213" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5189,12 +5894,13 @@
       <c r="B214">
         <v>1769</v>
       </c>
-      <c r="C214">
-        <v>0</v>
-      </c>
-      <c r="D214">
-        <f t="shared" si="3"/>
-        <v>1769</v>
+      <c r="C214" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D214" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5204,12 +5910,13 @@
       <c r="B215">
         <v>1937</v>
       </c>
-      <c r="C215">
-        <v>0</v>
-      </c>
-      <c r="D215">
-        <f t="shared" si="3"/>
-        <v>1937</v>
+      <c r="C215" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D215" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5219,12 +5926,13 @@
       <c r="B216">
         <v>2000</v>
       </c>
-      <c r="C216">
-        <v>0</v>
-      </c>
-      <c r="D216">
-        <f t="shared" si="3"/>
-        <v>2000</v>
+      <c r="C216" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D216" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5234,12 +5942,13 @@
       <c r="B217">
         <v>2180</v>
       </c>
-      <c r="C217">
-        <v>0</v>
-      </c>
-      <c r="D217">
-        <f t="shared" si="3"/>
-        <v>2180</v>
+      <c r="C217" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D217" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5249,12 +5958,13 @@
       <c r="B218">
         <v>2334</v>
       </c>
-      <c r="C218">
-        <v>0</v>
-      </c>
-      <c r="D218">
-        <f t="shared" si="3"/>
-        <v>2334</v>
+      <c r="C218" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D218" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5264,12 +5974,13 @@
       <c r="B219">
         <v>2180</v>
       </c>
-      <c r="C219">
-        <v>0</v>
-      </c>
-      <c r="D219">
-        <f t="shared" si="3"/>
-        <v>2180</v>
+      <c r="C219" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D219" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5279,12 +5990,13 @@
       <c r="B220">
         <v>2334</v>
       </c>
-      <c r="C220">
-        <v>0</v>
-      </c>
-      <c r="D220">
-        <f t="shared" si="3"/>
-        <v>2334</v>
+      <c r="C220" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D220" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5294,12 +6006,13 @@
       <c r="B221">
         <v>289</v>
       </c>
-      <c r="C221">
-        <v>0</v>
-      </c>
-      <c r="D221">
-        <f t="shared" si="3"/>
-        <v>289</v>
+      <c r="C221" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D221" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5309,12 +6022,13 @@
       <c r="B222">
         <v>294</v>
       </c>
-      <c r="C222">
-        <v>0</v>
-      </c>
-      <c r="D222">
-        <f t="shared" si="3"/>
-        <v>294</v>
+      <c r="C222" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D222" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5324,12 +6038,13 @@
       <c r="B223">
         <v>400</v>
       </c>
-      <c r="C223">
-        <v>0</v>
-      </c>
-      <c r="D223">
-        <f t="shared" si="3"/>
-        <v>400</v>
+      <c r="C223" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D223" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5339,12 +6054,13 @@
       <c r="B224">
         <v>488</v>
       </c>
-      <c r="C224">
-        <v>0</v>
-      </c>
-      <c r="D224">
-        <f t="shared" si="3"/>
-        <v>488</v>
+      <c r="C224" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D224" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5354,12 +6070,13 @@
       <c r="B225">
         <v>522</v>
       </c>
-      <c r="C225">
-        <v>0</v>
-      </c>
-      <c r="D225">
-        <f t="shared" si="3"/>
-        <v>522</v>
+      <c r="C225" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D225" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5369,12 +6086,13 @@
       <c r="B226">
         <v>27</v>
       </c>
-      <c r="C226">
-        <v>0</v>
-      </c>
-      <c r="D226">
-        <f t="shared" si="3"/>
-        <v>27</v>
+      <c r="C226" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D226" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5384,12 +6102,13 @@
       <c r="B227">
         <v>415</v>
       </c>
-      <c r="C227">
-        <v>0</v>
-      </c>
-      <c r="D227">
-        <f t="shared" si="3"/>
-        <v>415</v>
+      <c r="C227" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D227" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5399,12 +6118,13 @@
       <c r="B228">
         <v>440</v>
       </c>
-      <c r="C228">
-        <v>0</v>
-      </c>
-      <c r="D228">
-        <f t="shared" si="3"/>
-        <v>440</v>
+      <c r="C228" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D228" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5414,12 +6134,13 @@
       <c r="B229">
         <v>527</v>
       </c>
-      <c r="C229">
-        <v>0</v>
-      </c>
-      <c r="D229">
-        <f t="shared" si="3"/>
-        <v>527</v>
+      <c r="C229" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D229" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5429,12 +6150,13 @@
       <c r="B230">
         <v>517</v>
       </c>
-      <c r="C230">
-        <v>0</v>
-      </c>
-      <c r="D230">
-        <f t="shared" si="3"/>
-        <v>517</v>
+      <c r="C230" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D230" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5444,12 +6166,13 @@
       <c r="B231">
         <v>523</v>
       </c>
-      <c r="C231">
-        <v>0</v>
-      </c>
-      <c r="D231">
-        <f t="shared" si="3"/>
-        <v>523</v>
+      <c r="C231" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D231" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5459,12 +6182,13 @@
       <c r="B232">
         <v>663</v>
       </c>
-      <c r="C232">
-        <v>0</v>
-      </c>
-      <c r="D232">
-        <f t="shared" si="3"/>
-        <v>663</v>
+      <c r="C232" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D232" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5474,12 +6198,13 @@
       <c r="B233">
         <v>776</v>
       </c>
-      <c r="C233">
-        <v>0</v>
-      </c>
-      <c r="D233">
-        <f t="shared" si="3"/>
-        <v>776</v>
+      <c r="C233" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D233" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5489,12 +6214,13 @@
       <c r="B234">
         <v>808</v>
       </c>
-      <c r="C234">
-        <v>0</v>
-      </c>
-      <c r="D234">
-        <f t="shared" si="3"/>
-        <v>808</v>
+      <c r="C234" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D234" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5504,12 +6230,13 @@
       <c r="B235">
         <v>928</v>
       </c>
-      <c r="C235">
-        <v>0</v>
-      </c>
-      <c r="D235">
-        <f t="shared" si="3"/>
-        <v>928</v>
+      <c r="C235" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D235" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5519,12 +6246,13 @@
       <c r="B236">
         <v>3898</v>
       </c>
-      <c r="C236">
-        <v>0</v>
-      </c>
-      <c r="D236">
-        <f t="shared" si="3"/>
-        <v>3898</v>
+      <c r="C236" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D236" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5534,12 +6262,13 @@
       <c r="B237">
         <v>4187</v>
       </c>
-      <c r="C237">
-        <v>0</v>
-      </c>
-      <c r="D237">
-        <f t="shared" si="3"/>
-        <v>4187</v>
+      <c r="C237" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D237" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5549,12 +6278,13 @@
       <c r="B238">
         <v>4898</v>
       </c>
-      <c r="C238">
-        <v>0</v>
-      </c>
-      <c r="D238">
-        <f t="shared" si="3"/>
-        <v>4898</v>
+      <c r="C238" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D238" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5564,12 +6294,13 @@
       <c r="B239">
         <v>4321</v>
       </c>
-      <c r="C239">
-        <v>0</v>
-      </c>
-      <c r="D239">
-        <f t="shared" si="3"/>
-        <v>4321</v>
+      <c r="C239" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D239" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5579,12 +6310,13 @@
       <c r="B240">
         <v>4898</v>
       </c>
-      <c r="C240">
-        <v>0</v>
-      </c>
-      <c r="D240">
-        <f t="shared" si="3"/>
-        <v>4898</v>
+      <c r="C240" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D240" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5594,12 +6326,13 @@
       <c r="B241">
         <v>5476</v>
       </c>
-      <c r="C241">
-        <v>0</v>
-      </c>
-      <c r="D241">
-        <f t="shared" si="3"/>
-        <v>5476</v>
+      <c r="C241" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D241" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5609,12 +6342,13 @@
       <c r="B242">
         <v>2071</v>
       </c>
-      <c r="C242">
-        <v>0</v>
-      </c>
-      <c r="D242">
-        <f t="shared" si="3"/>
-        <v>2071</v>
+      <c r="C242" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D242" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5624,12 +6358,13 @@
       <c r="B243">
         <v>2648</v>
       </c>
-      <c r="C243">
-        <v>0</v>
-      </c>
-      <c r="D243">
-        <f t="shared" si="3"/>
-        <v>2648</v>
+      <c r="C243" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D243" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5639,12 +6374,13 @@
       <c r="B244">
         <v>3455</v>
       </c>
-      <c r="C244">
-        <v>0</v>
-      </c>
-      <c r="D244">
-        <f t="shared" si="3"/>
-        <v>3455</v>
+      <c r="C244" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D244" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5654,12 +6390,13 @@
       <c r="B245">
         <v>4187</v>
       </c>
-      <c r="C245">
-        <v>0</v>
-      </c>
-      <c r="D245">
-        <f t="shared" si="3"/>
-        <v>4187</v>
+      <c r="C245" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D245" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5669,12 +6406,13 @@
       <c r="B246">
         <v>3455</v>
       </c>
-      <c r="C246">
-        <v>0</v>
-      </c>
-      <c r="D246">
-        <f t="shared" si="3"/>
-        <v>3455</v>
+      <c r="C246" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D246" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5684,12 +6422,13 @@
       <c r="B247">
         <v>3610</v>
       </c>
-      <c r="C247">
-        <v>0</v>
-      </c>
-      <c r="D247">
-        <f t="shared" si="3"/>
-        <v>3610</v>
+      <c r="C247" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D247" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5699,12 +6438,13 @@
       <c r="B248">
         <v>4187</v>
       </c>
-      <c r="C248">
-        <v>0</v>
-      </c>
-      <c r="D248">
-        <f t="shared" si="3"/>
-        <v>4187</v>
+      <c r="C248" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D248" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5714,12 +6454,13 @@
       <c r="B249">
         <v>4321</v>
       </c>
-      <c r="C249">
-        <v>0</v>
-      </c>
-      <c r="D249">
-        <f t="shared" si="3"/>
-        <v>4321</v>
+      <c r="C249" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D249" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5729,12 +6470,13 @@
       <c r="B250">
         <v>4898</v>
       </c>
-      <c r="C250">
-        <v>0</v>
-      </c>
-      <c r="D250">
-        <f t="shared" si="3"/>
-        <v>4898</v>
+      <c r="C250" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D250" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5744,12 +6486,13 @@
       <c r="B251">
         <v>5476</v>
       </c>
-      <c r="C251">
-        <v>0</v>
-      </c>
-      <c r="D251">
-        <f t="shared" si="3"/>
-        <v>5476</v>
+      <c r="C251" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D251" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5759,12 +6502,13 @@
       <c r="B252">
         <v>470</v>
       </c>
-      <c r="C252">
-        <v>0</v>
-      </c>
-      <c r="D252">
-        <f t="shared" si="3"/>
-        <v>470</v>
+      <c r="C252" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D252" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5774,12 +6518,13 @@
       <c r="B253">
         <v>578</v>
       </c>
-      <c r="C253">
-        <v>0</v>
-      </c>
-      <c r="D253">
-        <f t="shared" si="3"/>
-        <v>578</v>
+      <c r="C253" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D253" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5789,12 +6534,13 @@
       <c r="B254">
         <v>507</v>
       </c>
-      <c r="C254">
-        <v>0</v>
-      </c>
-      <c r="D254">
-        <f t="shared" si="3"/>
-        <v>507</v>
+      <c r="C254" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D254" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5804,12 +6550,13 @@
       <c r="B255">
         <v>7488</v>
       </c>
-      <c r="C255">
-        <v>0</v>
-      </c>
-      <c r="D255">
-        <f t="shared" si="3"/>
-        <v>7488</v>
+      <c r="C255" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D255" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5819,12 +6566,13 @@
       <c r="B256">
         <v>7777</v>
       </c>
-      <c r="C256">
-        <v>0</v>
-      </c>
-      <c r="D256">
-        <f t="shared" si="3"/>
-        <v>7777</v>
+      <c r="C256" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D256" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5834,12 +6582,13 @@
       <c r="B257">
         <v>4187</v>
       </c>
-      <c r="C257">
-        <v>0</v>
-      </c>
-      <c r="D257">
-        <f t="shared" si="3"/>
-        <v>4187</v>
+      <c r="C257" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D257" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5849,12 +6598,13 @@
       <c r="B258">
         <v>4187</v>
       </c>
-      <c r="C258">
-        <v>0</v>
-      </c>
-      <c r="D258">
-        <f t="shared" si="3"/>
-        <v>4187</v>
+      <c r="C258" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D258" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5864,12 +6614,13 @@
       <c r="B259">
         <v>6341</v>
       </c>
-      <c r="C259">
-        <v>0</v>
-      </c>
-      <c r="D259">
-        <f t="shared" ref="D259:D275" si="4">B259-C259</f>
-        <v>6341</v>
+      <c r="C259" t="e">
+        <f t="shared" ref="C259:C275" si="8">VLOOKUP(A:A,E:F,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D259" t="e">
+        <f t="shared" ref="D259:D275" si="9">B259-C259</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5879,12 +6630,13 @@
       <c r="B260">
         <v>7354</v>
       </c>
-      <c r="C260">
-        <v>0</v>
-      </c>
-      <c r="D260">
-        <f t="shared" si="4"/>
-        <v>7354</v>
+      <c r="C260" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D260" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5894,12 +6646,13 @@
       <c r="B261">
         <v>411</v>
       </c>
-      <c r="C261">
-        <v>0</v>
-      </c>
-      <c r="D261">
-        <f t="shared" si="4"/>
-        <v>411</v>
+      <c r="C261" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D261" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5909,12 +6662,13 @@
       <c r="B262">
         <v>482</v>
       </c>
-      <c r="C262">
-        <v>0</v>
-      </c>
-      <c r="D262">
-        <f t="shared" si="4"/>
-        <v>482</v>
+      <c r="C262" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D262" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5924,12 +6678,13 @@
       <c r="B263">
         <v>649</v>
       </c>
-      <c r="C263">
-        <v>0</v>
-      </c>
-      <c r="D263">
-        <f t="shared" si="4"/>
-        <v>649</v>
+      <c r="C263" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D263" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5939,12 +6694,13 @@
       <c r="B264">
         <v>726</v>
       </c>
-      <c r="C264">
-        <v>0</v>
-      </c>
-      <c r="D264">
-        <f t="shared" si="4"/>
-        <v>726</v>
+      <c r="C264" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D264" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5954,12 +6710,13 @@
       <c r="B265">
         <v>809</v>
       </c>
-      <c r="C265">
-        <v>0</v>
-      </c>
-      <c r="D265">
-        <f t="shared" si="4"/>
-        <v>809</v>
+      <c r="C265" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D265" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5969,12 +6726,13 @@
       <c r="B266">
         <v>11675</v>
       </c>
-      <c r="C266">
-        <v>0</v>
-      </c>
-      <c r="D266">
-        <f t="shared" si="4"/>
-        <v>11675</v>
+      <c r="C266" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D266" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5984,12 +6742,13 @@
       <c r="B267">
         <v>11239</v>
       </c>
-      <c r="C267">
-        <v>0</v>
-      </c>
-      <c r="D267">
-        <f t="shared" si="4"/>
-        <v>11239</v>
+      <c r="C267" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D267" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5999,12 +6758,13 @@
       <c r="B268">
         <v>12828</v>
       </c>
-      <c r="C268">
-        <v>0</v>
-      </c>
-      <c r="D268">
-        <f t="shared" si="4"/>
-        <v>12828</v>
+      <c r="C268" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D268" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6014,12 +6774,13 @@
       <c r="B269">
         <v>2097</v>
       </c>
-      <c r="C269">
-        <v>0</v>
-      </c>
-      <c r="D269">
-        <f t="shared" si="4"/>
-        <v>2097</v>
+      <c r="C269" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D269" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6029,12 +6790,13 @@
       <c r="B270">
         <v>398</v>
       </c>
-      <c r="C270">
-        <v>0</v>
-      </c>
-      <c r="D270">
-        <f t="shared" si="4"/>
-        <v>398</v>
+      <c r="C270" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D270" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6044,12 +6806,13 @@
       <c r="B271">
         <v>322</v>
       </c>
-      <c r="C271">
-        <v>0</v>
-      </c>
-      <c r="D271">
-        <f t="shared" si="4"/>
-        <v>322</v>
+      <c r="C271" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D271" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6059,12 +6822,13 @@
       <c r="B272">
         <v>353</v>
       </c>
-      <c r="C272">
-        <v>0</v>
-      </c>
-      <c r="D272">
-        <f t="shared" si="4"/>
-        <v>353</v>
+      <c r="C272" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D272" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6074,12 +6838,13 @@
       <c r="B273">
         <v>379</v>
       </c>
-      <c r="C273">
-        <v>0</v>
-      </c>
-      <c r="D273">
-        <f t="shared" si="4"/>
-        <v>379</v>
+      <c r="C273" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D273" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -6089,12 +6854,13 @@
       <c r="B274">
         <v>196895</v>
       </c>
-      <c r="C274">
-        <v>0</v>
-      </c>
-      <c r="D274">
-        <f t="shared" si="4"/>
-        <v>196895</v>
+      <c r="C274" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D274" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -6104,12 +6870,13 @@
       <c r="B275">
         <v>9650</v>
       </c>
-      <c r="C275">
-        <v>0</v>
-      </c>
-      <c r="D275">
-        <f t="shared" si="4"/>
-        <v>9650</v>
+      <c r="C275" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D275" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -6992,7 +7759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -10860,4 +11627,2048 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>314</v>
+      </c>
+      <c r="B35">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>315</v>
+      </c>
+      <c r="B36">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>316</v>
+      </c>
+      <c r="B37">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>317</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>318</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>319</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>320</v>
+      </c>
+      <c r="B46" s="1">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>322</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>323</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4545</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>324</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4967</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>325</v>
+      </c>
+      <c r="B51" s="1">
+        <v>5866</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="1">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="1">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="1">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="1">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="1">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="1">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>172</v>
+      </c>
+      <c r="B68">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1738</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1792</v>
+      </c>
+      <c r="D2" s="6">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1413</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1456</v>
+      </c>
+      <c r="D3" s="6">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1300</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1340</v>
+      </c>
+      <c r="D4" s="6">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1192</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1229</v>
+      </c>
+      <c r="D5" s="6">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1133</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1168</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="6">
+        <v>987</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1017</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="6">
+        <v>940</v>
+      </c>
+      <c r="C8" s="6">
+        <v>969</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="6">
+        <v>928</v>
+      </c>
+      <c r="C9" s="6">
+        <v>956</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="6">
+        <v>800</v>
+      </c>
+      <c r="C10" s="6">
+        <v>825</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="6">
+        <v>808</v>
+      </c>
+      <c r="C11" s="6">
+        <v>833</v>
+      </c>
+      <c r="D11" s="6">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="6">
+        <v>694</v>
+      </c>
+      <c r="C12" s="6">
+        <v>715</v>
+      </c>
+      <c r="D12" s="6">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="6">
+        <v>562</v>
+      </c>
+      <c r="C13" s="6">
+        <v>578</v>
+      </c>
+      <c r="D13" s="6">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>191</v>
+      </c>
+      <c r="C14" s="5">
+        <v>191</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>224</v>
+      </c>
+      <c r="C15" s="5">
+        <v>224</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>248</v>
+      </c>
+      <c r="C16" s="5">
+        <v>248</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>286</v>
+      </c>
+      <c r="C17" s="5">
+        <v>286</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>357</v>
+      </c>
+      <c r="C18" s="5">
+        <v>357</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="5">
+        <v>249</v>
+      </c>
+      <c r="C19" s="5">
+        <v>249</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5">
+        <v>273</v>
+      </c>
+      <c r="C20" s="5">
+        <v>273</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="5">
+        <v>299</v>
+      </c>
+      <c r="C21" s="5">
+        <v>299</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="5">
+        <v>346</v>
+      </c>
+      <c r="C22" s="5">
+        <v>346</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="5">
+        <v>365</v>
+      </c>
+      <c r="C23" s="5">
+        <v>365</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5">
+        <v>403</v>
+      </c>
+      <c r="C24" s="5">
+        <v>403</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="5">
+        <v>495</v>
+      </c>
+      <c r="C25" s="5">
+        <v>495</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="5">
+        <v>505</v>
+      </c>
+      <c r="C26" s="5">
+        <v>505</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="5">
+        <v>371</v>
+      </c>
+      <c r="C27" s="5">
+        <v>371</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="5">
+        <v>403</v>
+      </c>
+      <c r="C28" s="5">
+        <v>403</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="5">
+        <v>445</v>
+      </c>
+      <c r="C29" s="5">
+        <v>445</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="5">
+        <v>516</v>
+      </c>
+      <c r="C30" s="5">
+        <v>516</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="5">
+        <v>665</v>
+      </c>
+      <c r="C31" s="5">
+        <v>665</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="5">
+        <v>527</v>
+      </c>
+      <c r="C32" s="5">
+        <v>527</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="5">
+        <v>623</v>
+      </c>
+      <c r="C33" s="5">
+        <v>623</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="5">
+        <v>751</v>
+      </c>
+      <c r="C34" s="5">
+        <v>751</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="5">
+        <v>796</v>
+      </c>
+      <c r="C35" s="5">
+        <v>796</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="5">
+        <v>928</v>
+      </c>
+      <c r="C36" s="5">
+        <v>928</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1064</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1064</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="5">
+        <v>1209</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1209</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="5">
+        <v>205</v>
+      </c>
+      <c r="C39" s="5">
+        <v>205</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="5">
+        <v>265</v>
+      </c>
+      <c r="C40" s="5">
+        <v>265</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="5">
+        <v>312</v>
+      </c>
+      <c r="C41" s="5">
+        <v>312</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="5">
+        <v>500</v>
+      </c>
+      <c r="C42" s="5">
+        <v>500</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="5">
+        <v>111</v>
+      </c>
+      <c r="C43" s="5">
+        <v>111</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="5">
+        <v>133</v>
+      </c>
+      <c r="C44" s="5">
+        <v>133</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="5">
+        <v>167</v>
+      </c>
+      <c r="C45" s="5">
+        <v>167</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="5">
+        <v>57</v>
+      </c>
+      <c r="C46" s="5">
+        <v>57</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="5">
+        <v>70</v>
+      </c>
+      <c r="C47" s="5">
+        <v>70</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="5">
+        <v>329</v>
+      </c>
+      <c r="C48" s="5">
+        <v>329</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="5">
+        <v>626</v>
+      </c>
+      <c r="C49" s="5">
+        <v>626</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="5">
+        <v>1038</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1038</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="5">
+        <v>1336</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1336</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="5">
+        <v>1555</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1555</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="5">
+        <v>1697</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1697</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="5">
+        <v>818</v>
+      </c>
+      <c r="C54" s="5">
+        <v>818</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="5">
+        <v>948</v>
+      </c>
+      <c r="C55" s="5">
+        <v>948</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="5">
+        <v>2148</v>
+      </c>
+      <c r="C56" s="5">
+        <v>2148</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="5">
+        <v>2806</v>
+      </c>
+      <c r="C57" s="5">
+        <v>2806</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="5">
+        <v>2103</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2103</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="5">
+        <v>2170</v>
+      </c>
+      <c r="C59" s="5">
+        <v>2170</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="5">
+        <v>2248</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2248</v>
+      </c>
+      <c r="D60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="5">
+        <v>2348</v>
+      </c>
+      <c r="C61" s="5">
+        <v>2348</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" s="5">
+        <v>2492</v>
+      </c>
+      <c r="C62" s="5">
+        <v>2492</v>
+      </c>
+      <c r="D62" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="5">
+        <v>2625</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2625</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="5">
+        <v>2714</v>
+      </c>
+      <c r="C64" s="5">
+        <v>2714</v>
+      </c>
+      <c r="D64" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="5">
+        <v>2792</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2792</v>
+      </c>
+      <c r="D65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="5">
+        <v>2858</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2858</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="5">
+        <v>3025</v>
+      </c>
+      <c r="C67" s="5">
+        <v>3025</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="5">
+        <v>3069</v>
+      </c>
+      <c r="C68" s="5">
+        <v>3069</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="5">
+        <v>3225</v>
+      </c>
+      <c r="C69" s="5">
+        <v>3225</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" s="5">
+        <v>3313</v>
+      </c>
+      <c r="C70" s="5">
+        <v>3313</v>
+      </c>
+      <c r="D70" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="5">
+        <v>3458</v>
+      </c>
+      <c r="C71" s="5">
+        <v>3458</v>
+      </c>
+      <c r="D71" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" s="5">
+        <v>3569</v>
+      </c>
+      <c r="C72" s="5">
+        <v>3569</v>
+      </c>
+      <c r="D72" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B73" s="5">
+        <v>2525</v>
+      </c>
+      <c r="C73" s="5">
+        <v>2525</v>
+      </c>
+      <c r="D73" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B74" s="5">
+        <v>2592</v>
+      </c>
+      <c r="C74" s="5">
+        <v>2592</v>
+      </c>
+      <c r="D74" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="5">
+        <v>2658</v>
+      </c>
+      <c r="C75" s="5">
+        <v>2658</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B76" s="5">
+        <v>2769</v>
+      </c>
+      <c r="C76" s="5">
+        <v>2769</v>
+      </c>
+      <c r="D76" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" s="5">
+        <v>2914</v>
+      </c>
+      <c r="C77" s="5">
+        <v>2914</v>
+      </c>
+      <c r="D77" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="5">
+        <v>3025</v>
+      </c>
+      <c r="C78" s="5">
+        <v>3025</v>
+      </c>
+      <c r="D78" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" s="5">
+        <v>3114</v>
+      </c>
+      <c r="C79" s="5">
+        <v>3114</v>
+      </c>
+      <c r="D79" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B80" s="5">
+        <v>3180</v>
+      </c>
+      <c r="C80" s="5">
+        <v>3180</v>
+      </c>
+      <c r="D80" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B81" s="5">
+        <v>3236</v>
+      </c>
+      <c r="C81" s="5">
+        <v>3236</v>
+      </c>
+      <c r="D81" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B82" s="5">
+        <v>3413</v>
+      </c>
+      <c r="C82" s="5">
+        <v>3413</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B83" s="5">
+        <v>3646</v>
+      </c>
+      <c r="C83" s="5">
+        <v>3646</v>
+      </c>
+      <c r="D83" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B84" s="5">
+        <v>3824</v>
+      </c>
+      <c r="C84" s="5">
+        <v>3824</v>
+      </c>
+      <c r="D84" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B85" s="5">
+        <v>3879</v>
+      </c>
+      <c r="C85" s="5">
+        <v>3879</v>
+      </c>
+      <c r="D85" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B86" s="5">
+        <v>4057</v>
+      </c>
+      <c r="C86" s="5">
+        <v>4057</v>
+      </c>
+      <c r="D86" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B87" s="5">
+        <v>4157</v>
+      </c>
+      <c r="C87" s="5">
+        <v>4157</v>
+      </c>
+      <c r="D87" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B88" s="5">
+        <v>527</v>
+      </c>
+      <c r="C88" s="5">
+        <v>527</v>
+      </c>
+      <c r="D88" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B89" s="5">
+        <v>638</v>
+      </c>
+      <c r="C89" s="5">
+        <v>638</v>
+      </c>
+      <c r="D89" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B90" s="5">
+        <v>738</v>
+      </c>
+      <c r="C90" s="5">
+        <v>738</v>
+      </c>
+      <c r="D90" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B91" s="5">
+        <v>816</v>
+      </c>
+      <c r="C91" s="5">
+        <v>816</v>
+      </c>
+      <c r="D91" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B92" s="5">
+        <v>938</v>
+      </c>
+      <c r="C92" s="5">
+        <v>938</v>
+      </c>
+      <c r="D92" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B93" s="5">
+        <v>94</v>
+      </c>
+      <c r="C93" s="5">
+        <v>94</v>
+      </c>
+      <c r="D93" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B94" s="5">
+        <v>105</v>
+      </c>
+      <c r="C94" s="5">
+        <v>105</v>
+      </c>
+      <c r="D94" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" s="5">
+        <v>105</v>
+      </c>
+      <c r="C95" s="5">
+        <v>105</v>
+      </c>
+      <c r="D95" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B96" s="5">
+        <v>128</v>
+      </c>
+      <c r="C96" s="5">
+        <v>128</v>
+      </c>
+      <c r="D96" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B97" s="5">
+        <v>183</v>
+      </c>
+      <c r="C97" s="5">
+        <v>183</v>
+      </c>
+      <c r="D97" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B98" s="5">
+        <v>28</v>
+      </c>
+      <c r="C98" s="5">
+        <v>28</v>
+      </c>
+      <c r="D98" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B99" s="5">
+        <v>56</v>
+      </c>
+      <c r="C99" s="5">
+        <v>56</v>
+      </c>
+      <c r="D99" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B100" s="5">
+        <v>216</v>
+      </c>
+      <c r="C100" s="5">
+        <v>216</v>
+      </c>
+      <c r="D100" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B101" s="5">
+        <v>266</v>
+      </c>
+      <c r="C101" s="5">
+        <v>266</v>
+      </c>
+      <c r="D101" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B102" s="5">
+        <v>339</v>
+      </c>
+      <c r="C102" s="5">
+        <v>339</v>
+      </c>
+      <c r="D102" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B103" s="5">
+        <v>405</v>
+      </c>
+      <c r="C103" s="5">
+        <v>405</v>
+      </c>
+      <c r="D103" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B104" s="5">
+        <v>516</v>
+      </c>
+      <c r="C104" s="5">
+        <v>516</v>
+      </c>
+      <c r="D104" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:D275">
+    <sortCondition ref="D1:D275"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>